--- a/links.xlsx
+++ b/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/Documents/JM_Web_automation_framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2356C2D2-E767-DA4C-9265-1BBB1A097DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFF324-C19E-1749-A2DF-B0BF2EDBCCAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,23 +357,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -424,23 +407,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F346FF-A91D-8846-91BF-07568A74B90D}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,18 +1133,18 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>98</v>
       </c>
     </row>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/Documents/JM_Web_automation_framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFF324-C19E-1749-A2DF-B0BF2EDBCCAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0548A-8576-AD48-BF22-0656B92D6828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
   </bookViews>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F346FF-A91D-8846-91BF-07568A74B90D}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,34 +949,34 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
     </row>

--- a/links.xlsx
+++ b/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/Documents/JM_Web_automation_framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0548A-8576-AD48-BF22-0656B92D6828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144C5B-F009-8A4C-9AA9-03351B6F127D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
+    <workbookView xWindow="260" yWindow="840" windowWidth="28040" windowHeight="16500" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,8 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B30"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1133,18 +1133,18 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>98</v>
       </c>
     </row>

--- a/links.xlsx
+++ b/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/Documents/JM_Web_automation_framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexdezho/Documents/JM_web_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144C5B-F009-8A4C-9AA9-03351B6F127D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AF528-467C-7643-9268-73EB67D989E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="840" windowWidth="28040" windowHeight="16500" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
+    <workbookView xWindow="260" yWindow="660" windowWidth="28040" windowHeight="16500" xr2:uid="{796D137E-05AF-894E-9A6B-069FDD279CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,16 +355,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,12 +397,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -734,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F346FF-A91D-8846-91BF-07568A74B90D}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,170 +965,170 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>98</v>
       </c>
     </row>
